--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt8a-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt8a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.38232766666667</v>
+        <v>30.58864766666666</v>
       </c>
       <c r="N2">
-        <v>91.14698300000001</v>
+        <v>91.76594299999999</v>
       </c>
       <c r="O2">
-        <v>0.4410933377331532</v>
+        <v>0.3925391465174898</v>
       </c>
       <c r="P2">
-        <v>0.4410933377331531</v>
+        <v>0.3925391465174898</v>
       </c>
       <c r="Q2">
-        <v>4.662228945105333</v>
+        <v>4.693889161745333</v>
       </c>
       <c r="R2">
-        <v>41.96006050594801</v>
+        <v>42.245002455708</v>
       </c>
       <c r="S2">
-        <v>0.4410933377331532</v>
+        <v>0.3925391465174898</v>
       </c>
       <c r="T2">
-        <v>0.4410933377331531</v>
+        <v>0.3925391465174898</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +620,10 @@
         <v>68.07160500000001</v>
       </c>
       <c r="O3">
-        <v>0.3294232070665772</v>
+        <v>0.291183949679193</v>
       </c>
       <c r="P3">
-        <v>0.3294232070665772</v>
+        <v>0.291183949679193</v>
       </c>
       <c r="Q3">
         <v>3.48190797682</v>
@@ -635,10 +632,10 @@
         <v>31.33717179138</v>
       </c>
       <c r="S3">
-        <v>0.3294232070665772</v>
+        <v>0.291183949679193</v>
       </c>
       <c r="T3">
-        <v>0.3294232070665772</v>
+        <v>0.291183949679193</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,90 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.71027466666667</v>
+        <v>24.64590566666666</v>
       </c>
       <c r="N4">
-        <v>47.130824</v>
+        <v>73.93771699999999</v>
       </c>
       <c r="O4">
-        <v>0.2280831661567317</v>
+        <v>0.3162769038033173</v>
       </c>
       <c r="P4">
-        <v>0.2280831661567317</v>
+        <v>0.3162769038033172</v>
       </c>
       <c r="Q4">
-        <v>2.410773068149334</v>
+        <v>3.781963516361333</v>
       </c>
       <c r="R4">
-        <v>21.696957613344</v>
+        <v>34.037671647252</v>
       </c>
       <c r="S4">
-        <v>0.2280831661567317</v>
+        <v>0.3162769038033173</v>
       </c>
       <c r="T4">
-        <v>0.2280831661567317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.153452</v>
-      </c>
-      <c r="H5">
-        <v>0.460356</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.09645133333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.289354</v>
-      </c>
-      <c r="O5">
-        <v>0.001400289043537939</v>
-      </c>
-      <c r="P5">
-        <v>0.001400289043537939</v>
-      </c>
-      <c r="Q5">
-        <v>0.01480065000266667</v>
-      </c>
-      <c r="R5">
-        <v>0.133205850024</v>
-      </c>
-      <c r="S5">
-        <v>0.001400289043537939</v>
-      </c>
-      <c r="T5">
-        <v>0.001400289043537939</v>
+        <v>0.3162769038033172</v>
       </c>
     </row>
   </sheetData>
